--- a/bigdipper.xlsx
+++ b/bigdipper.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\new_skyserver_homepage_image\new_skyserver_homepage_image\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub\new_skyserver_homepage_image\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7267C257-C461-4BA6-84BE-A711C7058970}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C9117C-D604-41F7-8BF5-11904009D703}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27585" windowHeight="12555" activeTab="1" xr2:uid="{21675B74-74B7-4132-94EE-B030786BA1CC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27585" windowHeight="12555" xr2:uid="{21675B74-74B7-4132-94EE-B030786BA1CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -10669,7 +10669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48221051-BE05-4D11-903A-6DF7FEAAA292}">
   <dimension ref="A1:AR65"/>
   <sheetViews>
-    <sheetView topLeftCell="E3" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -14789,7 +14789,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51DF7121-6740-4C14-8465-9468F30EED43}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
